--- a/Simulador_Investimentos_Fundos_Imobiliarios_Excel.xlsx
+++ b/Simulador_Investimentos_Fundos_Imobiliarios_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe.local\Videos\Controle de investimentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e07e48d03ebb44/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926FCA76-629B-4D83-94EF-1A2760DA021F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{926FCA76-629B-4D83-94EF-1A2760DA021F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86217A41-A60A-4A89-9EA1-A3696AB85769}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="630" windowWidth="20730" windowHeight="11760" tabRatio="345" xr2:uid="{D63472A4-8300-4934-9C87-0EC792DCF89D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="345" xr2:uid="{D63472A4-8300-4934-9C87-0EC792DCF89D}"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
@@ -157,9 +157,9 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,14 +177,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,36 +210,65 @@
     </font>
     <font>
       <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Segoe UI Semibold"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="10">
@@ -276,12 +297,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,6 +316,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE593"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,136 +639,16 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="8" fontId="11" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="8" fontId="11" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -755,18 +656,146 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="8" fontId="11" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="8" fontId="11" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -778,6 +807,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFE593"/>
       <color rgb="FFE2BD74"/>
     </mruColors>
   </colors>
@@ -865,6 +895,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B4DE-4272-B783-D45FA3FBEF75}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -906,6 +941,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B4DE-4272-B783-D45FA3FBEF75}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -947,6 +987,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B4DE-4272-B783-D45FA3FBEF75}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -988,6 +1033,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B4DE-4272-B783-D45FA3FBEF75}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1029,6 +1079,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B4DE-4272-B783-D45FA3FBEF75}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1070,6 +1125,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-B4DE-4272-B783-D45FA3FBEF75}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1825,13 +1885,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>199066</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>183696</xdr:rowOff>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>39273</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13854</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:to>
@@ -1848,25 +1908,28 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect b="9606"/>
+        <a:srcRect t="27943" b="27943"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="199066" y="182563"/>
-          <a:ext cx="6008059" cy="1485901"/>
+          <a:off x="346364" y="183696"/>
+          <a:ext cx="5507181" cy="1462687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:softEdge rad="38100"/>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2227,341 +2290,485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A0B514-4758-45B7-9E7C-BEE6ADE55698}">
-  <dimension ref="A10:H57"/>
+  <dimension ref="A10:H65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="46.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="8" width="3.54296875" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" hidden="1"/>
+    <col min="5" max="5" width="5.77734375" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="2:4" ht="26" x14ac:dyDescent="0.45">
-      <c r="B11" s="5" t="s">
+    <row r="10" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:4" ht="27" x14ac:dyDescent="0.4">
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="34">
+      <c r="D12" s="23">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="35">
+      <c r="D13" s="26">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="36" t="s">
+    <row r="14" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29">
         <f>D12*30%</f>
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="8" t="s">
+    <row r="15" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="23">
+      <c r="D17" s="30">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="25"/>
-      <c r="D18" s="26">
+      <c r="D18" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="27">
+      <c r="D19" s="32">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B20" s="28" t="s">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
         <v>16755.382799697527</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="31" t="s">
+    <row r="21" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33">
+      <c r="C21" s="37"/>
+      <c r="D21" s="38">
         <f>patrimonio*rendimento_carteira</f>
         <v>100.53229679818516</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B23" s="8" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:5" ht="29.4" x14ac:dyDescent="0.3">
+      <c r="B23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="40">
         <f>FV($D$19,$A24*12,$D$17*-1)</f>
         <v>5445.5254595290435</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="41">
         <f>C24*rendimento_carteira</f>
         <v>32.673152757174265</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="43">
         <f>FV($D$19,$A25*12,$D$17*-1)</f>
         <v>16755.382799697527</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="44">
         <f>C25*rendimento_carteira</f>
         <v>100.53229679818516</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="43">
         <f>FV($D$19,$A26*12,$D$17*-1)</f>
         <v>48656.842506034438</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="44">
         <f>C26*rendimento_carteira</f>
         <v>291.94105503620665</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="43">
         <f>FV($D$19,$A27*12,$D$17*-1)</f>
         <v>225039.68001941612</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="44">
         <f>C27*rendimento_carteira</f>
         <v>1350.2380801164968</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>30</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="46">
         <f>FV($D$19,$A28*12,$D$17*-1)</f>
         <v>864433.93100094295</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="47">
         <f>C28*rendimento_carteira</f>
         <v>5186.6035860056581</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="39" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="48"/>
+      <c r="B32" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="39"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="41" t="s">
+      <c r="D32" s="49"/>
+      <c r="E32" s="48"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="48"/>
+      <c r="B33" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="52">
         <f>aporte</f>
         <v>200</v>
       </c>
-      <c r="D33" s="41"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="43" t="s">
+      <c r="D33" s="51"/>
+      <c r="E33" s="48"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="48"/>
+      <c r="B35" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="53" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="2" t="s">
+      <c r="E35" s="48"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="48"/>
+      <c r="B36" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="55">
         <f>VLOOKUP($C$32&amp;"-"&amp;B36,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.32</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="56">
         <f>C36*$C$33</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="2" t="s">
+      <c r="E36" s="48"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="48"/>
+      <c r="B37" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="55">
         <f>VLOOKUP($C$32&amp;"-"&amp;B37,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.35</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="56">
         <f t="shared" ref="D37:D41" si="0">C37*$C$33</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="2" t="s">
+      <c r="E37" s="48"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="48"/>
+      <c r="B38" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="55">
         <f>VLOOKUP($C$32&amp;"-"&amp;B38,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.08</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="56">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="2" t="s">
+      <c r="E38" s="48"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="48"/>
+      <c r="B39" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="55">
         <f>VLOOKUP($C$32&amp;"-"&amp;B39,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D39" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="2" t="s">
+      <c r="E39" s="48"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="48"/>
+      <c r="B40" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="55">
         <f>VLOOKUP($C$32&amp;"-"&amp;B40,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="56">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="2" t="s">
+      <c r="E40" s="48"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="48"/>
+      <c r="B41" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="55">
         <f>VLOOKUP($C$32&amp;"-"&amp;B41,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="56">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="45">
+      <c r="E41" s="48"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="48"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="58">
         <f>SUM(D36:D41)</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="E42" s="48"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="48"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="48"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="48"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+    </row>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32" xr:uid="{25FB6157-0D6F-4288-BDF6-1C9F16279EC9}">
@@ -2581,29 +2788,29 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>B3&amp;"-"&amp;C3</f>
         <v>Conservador-PAPEL</v>
@@ -2614,14 +2821,14 @@
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.3</v>
       </c>
       <c r="H3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A20" si="0">B4&amp;"-"&amp;C4</f>
         <v>Conservador-TIJOLO</v>
@@ -2632,18 +2839,18 @@
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.5</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="11">
         <f>VLOOKUP(G4,$A:$D,4,FALSE)</f>
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HÍBRIDOS</v>
@@ -2654,11 +2861,11 @@
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-FOFs</v>
@@ -2669,11 +2876,11 @@
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-DESENVOLVIMENTO</v>
@@ -2684,26 +2891,26 @@
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="47" t="str">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HOTELARIAS</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-PAPEL</v>
@@ -2714,26 +2921,26 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="str">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-TIJOLO</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="10">
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HÍBRIDOS</v>
@@ -2744,11 +2951,11 @@
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-FOFs</v>
@@ -2759,11 +2966,11 @@
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-DESENVOLVIMENTO</v>
@@ -2774,26 +2981,26 @@
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="47" t="str">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HOTELARIAS</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-PAPEL</v>
@@ -2804,11 +3011,11 @@
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-TIJOLO</v>
@@ -2819,11 +3026,11 @@
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HÍBRIDOS</v>
@@ -2834,11 +3041,11 @@
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-FOFs</v>
@@ -2849,11 +3056,11 @@
       <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-DESENVOLVIMENTO</v>
@@ -2864,11 +3071,11 @@
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HOTELARIAS</v>
@@ -2879,11 +3086,11 @@
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
     </row>
   </sheetData>
@@ -2892,6 +3099,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -3146,34 +3373,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BBC473-00BC-48E4-BFA3-FE8E2B1F0015}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D0D6DD-E6DB-45C8-8F90-E314C090C085}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C32110DE-3D77-470C-9CED-65521C30E3F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C32110DE-3D77-470C-9CED-65521C30E3F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D0D6DD-E6DB-45C8-8F90-E314C090C085}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BBC473-00BC-48E4-BFA3-FE8E2B1F0015}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>